--- a/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
+++ b/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="2280" yWindow="2280" windowWidth="17280" windowHeight="8916"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,11 +168,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,492 +518,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
+++ b/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Code</t>
   </si>
@@ -38,9 +38,6 @@
     <t>PG/ Sale Rep</t>
   </si>
   <si>
-    <t>Sales sup</t>
-  </si>
-  <si>
     <t>Sales Manager</t>
   </si>
   <si>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Sales Manager ID</t>
+  </si>
+  <si>
+    <t>KA/ASM ID</t>
+  </si>
+  <si>
+    <t>Sales Sup. ID</t>
+  </si>
+  <si>
+    <t>Sales Sup.</t>
   </si>
 </sst>
 </file>
@@ -166,11 +175,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD38"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,28 +512,28 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -530,487 +544,553 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
+++ b/SAP_B1/GVTBetagen/Templates/SalesTarget_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\TSC_Source\TSC\SAP_B1\GVTBetagen\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NN\TSC\SAP_B1\GVTBetagen\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC31727-83EE-4C53-B025-1206E699C37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="17280" windowHeight="8916"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -110,7 +111,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,18 +179,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,71 +512,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,38 +616,38 @@
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -649,18 +661,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -674,18 +686,18 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -699,18 +711,18 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -724,18 +736,18 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -749,18 +761,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -774,18 +786,18 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -799,18 +811,18 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -824,18 +836,18 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -849,18 +861,18 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -874,18 +886,18 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -899,18 +911,18 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -924,18 +936,18 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -949,18 +961,18 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -974,18 +986,18 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -999,18 +1011,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1024,18 +1036,18 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1049,18 +1061,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1074,16 +1086,16 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
